--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="54">
   <si>
     <t>TC</t>
   </si>
@@ -176,12 +181,15 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -279,13 +287,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -334,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,9 +378,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,6 +430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,22 +622,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -620,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>31</v>
       </c>
@@ -634,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -648,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -659,7 +704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -670,7 +715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -688,24 +733,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.77734375" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -728,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -745,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -762,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -780,7 +825,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -798,7 +843,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -816,7 +861,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -834,7 +879,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -859,27 +904,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.77734375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
@@ -920,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -955,7 +1000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -991,7 +1036,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>50</v>
       </c>
@@ -1027,7 +1072,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>50</v>
       </c>
@@ -1063,7 +1108,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>50</v>
       </c>
@@ -1099,7 +1144,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
@@ -1135,7 +1180,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>50</v>
       </c>
@@ -1173,13 +1218,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1187,30 +1232,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
@@ -1254,7 +1299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1322,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>47</v>
@@ -1294,7 +1339,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>Payroll Suite 4WeeklyCatZ201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
@@ -189,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +284,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -622,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -733,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,11 +901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,13 +964,13 @@
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>29</v>
@@ -988,7 +985,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>44</v>
@@ -1002,13 +999,13 @@
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>29</v>
@@ -1023,7 +1020,7 @@
         <v>43</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>44</v>
@@ -1038,13 +1035,13 @@
     </row>
     <row r="4" spans="1:13" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>29</v>
@@ -1059,7 +1056,7 @@
         <v>43</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>44</v>
@@ -1074,13 +1071,13 @@
     </row>
     <row r="5" spans="1:13" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>29</v>
@@ -1095,7 +1092,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>44</v>
@@ -1110,13 +1107,13 @@
     </row>
     <row r="6" spans="1:13" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>29</v>
@@ -1131,7 +1128,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>44</v>
@@ -1146,13 +1143,13 @@
     </row>
     <row r="7" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>29</v>
@@ -1167,7 +1164,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>44</v>
@@ -1182,13 +1179,13 @@
     </row>
     <row r="8" spans="1:13" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>29</v>
@@ -1203,7 +1200,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>44</v>
@@ -1218,13 +1215,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
@@ -1232,10 +1229,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1301,13 +1298,13 @@
     </row>
     <row r="2" spans="1:14" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>29</v>
@@ -1322,7 +1319,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>47</v>
@@ -1331,7 +1328,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>6</v>
@@ -1339,7 +1336,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -81,27 +81,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -171,16 +150,37 @@
     <t>Payroll Suite 4WeeklyCatZ201718.xlsx</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
-    <t>FourWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 540</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 541</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 542</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 543</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 544</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 545</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 546</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI4WCZ EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI4WCZ_Payroll</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,7 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -256,9 +255,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -276,10 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -650,7 +644,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -662,26 +656,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>26</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -701,8 +695,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -734,7 +728,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +736,7 @@
     <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -771,51 +765,51 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
+      <c r="A2" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>8167.77</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>8167.9</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>45006.52</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>30</v>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>6</v>
@@ -823,17 +817,17 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>45006.65</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -841,53 +835,53 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="12">
+        <v>45009.77</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14">
-        <v>45009.77</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="12">
+        <v>45009.9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14">
-        <v>45009.9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>63050</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -904,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,297 +915,297 @@
     <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="K2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" s="10" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="12" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="12" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="12" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="12" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="12" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="11"/>
+      <c r="I8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1222,9 +1216,10 @@
     <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A8" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -1232,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,91 +1247,92 @@
     <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="J1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="K1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="K2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatZ201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_Z" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_Z" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>TC</t>
   </si>
@@ -187,6 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,54 +235,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -298,10 +299,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -336,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -493,7 +494,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -502,13 +503,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -518,7 +519,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -536,7 +537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -546,12 +547,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -582,7 +583,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -601,7 +602,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -613,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -622,10 +623,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -670,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -695,7 +696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="30" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -706,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row ht="75" r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -718,13 +719,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -733,12 +734,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="82.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="82.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,13 +890,13 @@
       <c r="H8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -904,18 +905,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -956,7 +957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
@@ -991,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="3" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -1027,7 +1028,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" s="10" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36.6" r="4" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
@@ -1063,7 +1064,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" s="10" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33.6" r="5" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>51</v>
       </c>
@@ -1099,7 +1100,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="10" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="33" r="6" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
@@ -1135,7 +1136,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" s="10" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="36" r="7" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>51</v>
       </c>
@@ -1171,7 +1172,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" s="10" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="37.9" r="8" s="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>51</v>
       </c>
@@ -1209,22 +1210,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A8" r:id="rId8" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId8" ref="A2:A8"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1233,21 +1234,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="63.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="63.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="43.5" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
@@ -1331,9 +1332,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>